--- a/data/output/FV2504_FV2410/UTILMD/55004.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55004.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="241">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="241">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -870,6 +870,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U106" totalsRowShown="0">
+  <autoFilter ref="A1:U106"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1159,7 +1189,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5870,5 +5903,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55004.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55004.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2433" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="343">
   <si>
     <t>#</t>
   </si>
@@ -5843,44 +5843,42 @@
       </c>
     </row>
     <row r="90" spans="1:22">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5" t="s">
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="K90" s="5"/>
-      <c r="L90" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M90" s="5" t="s">
+      <c r="K90" s="2"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N90" s="5" t="s">
+      <c r="N90" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
-      <c r="U90" s="5" t="s">
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="V90" s="5"/>
+      <c r="V90" s="2"/>
     </row>
     <row r="91" spans="1:22">
       <c r="A91" s="5" t="s">

--- a/data/output/FV2504_FV2410/UTILMD/55004.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55004.xlsx
@@ -1160,7 +1160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1183,6 +1183,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1191,6 +1194,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1633,7 +1639,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1997,7 +2003,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2143,7 +2149,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2345,7 +2351,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2653,7 +2659,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2853,7 +2859,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3227,7 +3233,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3535,7 +3541,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3711,26 +3717,26 @@
       <c r="V42" s="5"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5" t="s">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
         <v>197</v>
       </c>
       <c r="K43" s="6" t="s">
@@ -3739,23 +3745,23 @@
       <c r="L43" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O43" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P43" s="5"/>
+      <c r="P43" s="2"/>
       <c r="Q43" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5" t="s">
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2" t="s">
         <v>197</v>
       </c>
       <c r="V43" s="6" t="s">
@@ -3939,54 +3945,54 @@
       <c r="V46" s="5"/>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="E47" s="2"/>
       <c r="F47" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5" t="s">
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="K47" s="5" t="s">
+      <c r="K47" s="2" t="s">
         <v>206</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N47" s="5" t="s">
+      <c r="N47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O47" s="5" t="s">
+      <c r="O47" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P47" s="5"/>
+      <c r="P47" s="2"/>
       <c r="Q47" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5" t="s">
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="V47" s="5" t="s">
+      <c r="V47" s="2" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4173,26 +4179,26 @@
       <c r="B51" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8" t="s">
+      <c r="E51" s="9"/>
+      <c r="F51" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8" t="s">
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="K51" s="8" t="s">
+      <c r="K51" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="L51" s="9" t="s">
+      <c r="L51" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M51" s="5"/>
@@ -4210,33 +4216,33 @@
       <c r="A52" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8" t="s">
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J52" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="9" t="s">
+      <c r="J52" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M52" s="5"/>
@@ -4254,33 +4260,33 @@
       <c r="A53" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8" t="s">
+      <c r="H53" s="9"/>
+      <c r="I53" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="J53" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="K53" s="8"/>
-      <c r="L53" s="9" t="s">
+      <c r="J53" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="K53" s="9"/>
+      <c r="L53" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M53" s="5"/>
@@ -4298,31 +4304,31 @@
       <c r="A54" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8" t="s">
+      <c r="F54" s="9"/>
+      <c r="G54" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8" t="s">
+      <c r="H54" s="9"/>
+      <c r="I54" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="J54" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="K54" s="8"/>
-      <c r="L54" s="9" t="s">
+      <c r="J54" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="K54" s="9"/>
+      <c r="L54" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M54" s="5"/>
@@ -4340,31 +4346,31 @@
       <c r="A55" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8" t="s">
+      <c r="F55" s="9"/>
+      <c r="G55" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8" t="s">
+      <c r="H55" s="9"/>
+      <c r="I55" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="J55" s="8" t="s">
+      <c r="J55" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="K55" s="8"/>
-      <c r="L55" s="9" t="s">
+      <c r="K55" s="9"/>
+      <c r="L55" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M55" s="5"/>
@@ -4382,31 +4388,31 @@
       <c r="A56" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8" t="s">
+      <c r="F56" s="9"/>
+      <c r="G56" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8" t="s">
+      <c r="H56" s="9"/>
+      <c r="I56" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="J56" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="K56" s="8"/>
-      <c r="L56" s="9" t="s">
+      <c r="J56" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="K56" s="9"/>
+      <c r="L56" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M56" s="5"/>
@@ -4424,31 +4430,31 @@
       <c r="A57" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8" t="s">
+      <c r="F57" s="9"/>
+      <c r="G57" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8" t="s">
+      <c r="H57" s="9"/>
+      <c r="I57" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="J57" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="K57" s="8"/>
-      <c r="L57" s="9" t="s">
+      <c r="J57" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="K57" s="9"/>
+      <c r="L57" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M57" s="5"/>
@@ -4466,33 +4472,33 @@
       <c r="A58" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8" t="s">
+      <c r="F58" s="9"/>
+      <c r="G58" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8" t="s">
+      <c r="H58" s="9"/>
+      <c r="I58" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="J58" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="K58" s="8" t="s">
+      <c r="J58" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="K58" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="L58" s="9" t="s">
+      <c r="L58" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M58" s="5"/>
@@ -4510,31 +4516,31 @@
       <c r="A59" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8" t="s">
+      <c r="F59" s="9"/>
+      <c r="G59" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8" t="s">
+      <c r="H59" s="9"/>
+      <c r="I59" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="J59" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="K59" s="8"/>
-      <c r="L59" s="9" t="s">
+      <c r="J59" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="K59" s="9"/>
+      <c r="L59" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M59" s="5"/>
@@ -4552,31 +4558,31 @@
       <c r="A60" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8" t="s">
+      <c r="F60" s="9"/>
+      <c r="G60" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8" t="s">
+      <c r="H60" s="9"/>
+      <c r="I60" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="J60" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="K60" s="8"/>
-      <c r="L60" s="9" t="s">
+      <c r="J60" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="K60" s="9"/>
+      <c r="L60" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M60" s="5"/>
@@ -4597,24 +4603,24 @@
       <c r="B61" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8" t="s">
+      <c r="E61" s="9"/>
+      <c r="F61" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8" t="s">
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="K61" s="8"/>
-      <c r="L61" s="9" t="s">
+      <c r="K61" s="9"/>
+      <c r="L61" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M61" s="5"/>
@@ -4632,33 +4638,33 @@
       <c r="A62" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G62" s="8" t="s">
+      <c r="G62" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8" t="s">
+      <c r="H62" s="9"/>
+      <c r="I62" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="J62" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="K62" s="8"/>
-      <c r="L62" s="9" t="s">
+      <c r="J62" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="K62" s="9"/>
+      <c r="L62" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M62" s="5"/>
@@ -4676,31 +4682,31 @@
       <c r="A63" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8" t="s">
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="J63" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="K63" s="8"/>
-      <c r="L63" s="9" t="s">
+      <c r="J63" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="K63" s="9"/>
+      <c r="L63" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M63" s="5"/>
@@ -4728,29 +4734,29 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="10" t="s">
+      <c r="L64" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M64" s="11" t="s">
+      <c r="M64" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="N64" s="11" t="s">
+      <c r="N64" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O64" s="11" t="s">
+      <c r="O64" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="11" t="s">
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11"/>
-      <c r="U64" s="11" t="s">
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+      <c r="T64" s="13"/>
+      <c r="U64" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="V64" s="11"/>
+      <c r="V64" s="13"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="5" t="s">
@@ -4766,35 +4772,35 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="10" t="s">
+      <c r="L65" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M65" s="11" t="s">
+      <c r="M65" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N65" s="11" t="s">
+      <c r="N65" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O65" s="11" t="s">
+      <c r="O65" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P65" s="11" t="s">
+      <c r="P65" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q65" s="11" t="s">
+      <c r="Q65" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="R65" s="11" t="s">
+      <c r="R65" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11" t="s">
+      <c r="S65" s="13"/>
+      <c r="T65" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="U65" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="V65" s="11"/>
+      <c r="U65" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="V65" s="13"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="5" t="s">
@@ -4810,35 +4816,35 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="10" t="s">
+      <c r="L66" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N66" s="11" t="s">
+      <c r="N66" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O66" s="11" t="s">
+      <c r="O66" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P66" s="11" t="s">
+      <c r="P66" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q66" s="11" t="s">
+      <c r="Q66" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="R66" s="11" t="s">
+      <c r="R66" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11" t="s">
+      <c r="S66" s="13"/>
+      <c r="T66" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="U66" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="V66" s="11"/>
+      <c r="U66" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="V66" s="13"/>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="5" t="s">
@@ -4854,33 +4860,33 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="10" t="s">
+      <c r="L67" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M67" s="11" t="s">
+      <c r="M67" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N67" s="11" t="s">
+      <c r="N67" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O67" s="11" t="s">
+      <c r="O67" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P67" s="11" t="s">
+      <c r="P67" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="11" t="s">
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11" t="s">
+      <c r="S67" s="13"/>
+      <c r="T67" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="U67" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="V67" s="11"/>
+      <c r="U67" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="V67" s="13"/>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="5" t="s">
@@ -4896,33 +4902,33 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="10" t="s">
+      <c r="L68" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M68" s="11" t="s">
+      <c r="M68" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N68" s="11" t="s">
+      <c r="N68" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O68" s="11" t="s">
+      <c r="O68" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P68" s="11" t="s">
+      <c r="P68" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="11" t="s">
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11" t="s">
+      <c r="S68" s="13"/>
+      <c r="T68" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="U68" s="11" t="s">
+      <c r="U68" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="V68" s="11"/>
+      <c r="V68" s="13"/>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="5" t="s">
@@ -4938,33 +4944,33 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="10" t="s">
+      <c r="L69" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M69" s="11" t="s">
+      <c r="M69" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N69" s="11" t="s">
+      <c r="N69" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O69" s="11" t="s">
+      <c r="O69" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P69" s="11" t="s">
+      <c r="P69" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q69" s="11"/>
-      <c r="R69" s="11" t="s">
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11" t="s">
+      <c r="S69" s="13"/>
+      <c r="T69" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="U69" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="V69" s="11"/>
+      <c r="U69" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="V69" s="13"/>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="5" t="s">
@@ -4980,33 +4986,33 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="10" t="s">
+      <c r="L70" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M70" s="11" t="s">
+      <c r="M70" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N70" s="11" t="s">
+      <c r="N70" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O70" s="11" t="s">
+      <c r="O70" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P70" s="11" t="s">
+      <c r="P70" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q70" s="11"/>
-      <c r="R70" s="11" t="s">
+      <c r="Q70" s="13"/>
+      <c r="R70" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11" t="s">
+      <c r="S70" s="13"/>
+      <c r="T70" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="U70" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="V70" s="11"/>
+      <c r="U70" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="V70" s="13"/>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="5" t="s">
@@ -5022,33 +5028,33 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="10" t="s">
+      <c r="L71" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M71" s="11" t="s">
+      <c r="M71" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N71" s="11" t="s">
+      <c r="N71" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O71" s="11" t="s">
+      <c r="O71" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P71" s="11" t="s">
+      <c r="P71" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q71" s="11"/>
-      <c r="R71" s="11" t="s">
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11" t="s">
+      <c r="S71" s="13"/>
+      <c r="T71" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="U71" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="V71" s="11"/>
+      <c r="U71" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="V71" s="13"/>
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="5" t="s">
@@ -5064,33 +5070,33 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="10" t="s">
+      <c r="L72" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M72" s="11" t="s">
+      <c r="M72" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N72" s="11" t="s">
+      <c r="N72" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O72" s="11" t="s">
+      <c r="O72" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P72" s="11" t="s">
+      <c r="P72" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q72" s="11"/>
-      <c r="R72" s="11" t="s">
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11" t="s">
+      <c r="S72" s="13"/>
+      <c r="T72" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="U72" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="V72" s="11"/>
+      <c r="U72" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="V72" s="13"/>
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="5" t="s">
@@ -5106,33 +5112,33 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="10" t="s">
+      <c r="L73" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M73" s="11" t="s">
+      <c r="M73" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N73" s="11" t="s">
+      <c r="N73" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O73" s="11" t="s">
+      <c r="O73" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P73" s="11" t="s">
+      <c r="P73" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="11" t="s">
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11" t="s">
+      <c r="S73" s="13"/>
+      <c r="T73" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="U73" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="V73" s="11" t="s">
+      <c r="U73" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="V73" s="13" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5150,35 +5156,35 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="10" t="s">
+      <c r="L74" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M74" s="11" t="s">
+      <c r="M74" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N74" s="11" t="s">
+      <c r="N74" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O74" s="11" t="s">
+      <c r="O74" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P74" s="11" t="s">
+      <c r="P74" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q74" s="11" t="s">
+      <c r="Q74" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="R74" s="11" t="s">
+      <c r="R74" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="S74" s="11"/>
-      <c r="T74" s="11" t="s">
+      <c r="S74" s="13"/>
+      <c r="T74" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="U74" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="V74" s="11"/>
+      <c r="U74" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="V74" s="13"/>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="5" t="s">
@@ -5194,33 +5200,33 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="10" t="s">
+      <c r="L75" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M75" s="11" t="s">
+      <c r="M75" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N75" s="11" t="s">
+      <c r="N75" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O75" s="11" t="s">
+      <c r="O75" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P75" s="11" t="s">
+      <c r="P75" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q75" s="11"/>
-      <c r="R75" s="11" t="s">
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="S75" s="11"/>
-      <c r="T75" s="11" t="s">
+      <c r="S75" s="13"/>
+      <c r="T75" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="U75" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="V75" s="11"/>
+      <c r="U75" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="V75" s="13"/>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="5" t="s">
@@ -5236,33 +5242,33 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="10" t="s">
+      <c r="L76" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M76" s="11" t="s">
+      <c r="M76" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N76" s="11" t="s">
+      <c r="N76" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O76" s="11" t="s">
+      <c r="O76" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P76" s="11" t="s">
+      <c r="P76" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q76" s="11"/>
-      <c r="R76" s="11" t="s">
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="S76" s="11"/>
-      <c r="T76" s="11" t="s">
+      <c r="S76" s="13"/>
+      <c r="T76" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="U76" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="V76" s="11"/>
+      <c r="U76" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="V76" s="13"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="5" t="s">
@@ -5278,50 +5284,50 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="10" t="s">
+      <c r="L77" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M77" s="11" t="s">
+      <c r="M77" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N77" s="11" t="s">
+      <c r="N77" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O77" s="11" t="s">
+      <c r="O77" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P77" s="11" t="s">
+      <c r="P77" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q77" s="11"/>
-      <c r="R77" s="11" t="s">
+      <c r="Q77" s="13"/>
+      <c r="R77" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="S77" s="11"/>
-      <c r="T77" s="11" t="s">
+      <c r="S77" s="13"/>
+      <c r="T77" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="U77" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="V77" s="11"/>
+      <c r="U77" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="V77" s="13"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
       <c r="J78" s="6" t="s">
         <v>200</v>
       </c>
@@ -5331,18 +5337,18 @@
       <c r="L78" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="M78" s="5" t="s">
+      <c r="M78" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N78" s="5" t="s">
+      <c r="N78" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
       <c r="U78" s="6" t="s">
         <v>236</v>
       </c>
@@ -5532,25 +5538,25 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="10" t="s">
+      <c r="L82" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M82" s="11" t="s">
+      <c r="M82" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="N82" s="11" t="s">
+      <c r="N82" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O82" s="11"/>
-      <c r="P82" s="11"/>
-      <c r="Q82" s="11"/>
-      <c r="R82" s="11"/>
-      <c r="S82" s="11"/>
-      <c r="T82" s="11"/>
-      <c r="U82" s="11" t="s">
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="13"/>
+      <c r="R82" s="13"/>
+      <c r="S82" s="13"/>
+      <c r="T82" s="13"/>
+      <c r="U82" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="V82" s="11" t="s">
+      <c r="V82" s="13" t="s">
         <v>241</v>
       </c>
     </row>
@@ -5568,29 +5574,29 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="10" t="s">
+      <c r="L83" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M83" s="11" t="s">
+      <c r="M83" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="N83" s="11" t="s">
+      <c r="N83" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O83" s="11" t="s">
+      <c r="O83" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P83" s="11"/>
-      <c r="Q83" s="11" t="s">
+      <c r="P83" s="13"/>
+      <c r="Q83" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="R83" s="11"/>
-      <c r="S83" s="11"/>
-      <c r="T83" s="11"/>
-      <c r="U83" s="11" t="s">
+      <c r="R83" s="13"/>
+      <c r="S83" s="13"/>
+      <c r="T83" s="13"/>
+      <c r="U83" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="V83" s="11"/>
+      <c r="V83" s="13"/>
     </row>
     <row r="84" spans="1:22">
       <c r="A84" s="5" t="s">
@@ -5606,35 +5612,35 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="10" t="s">
+      <c r="L84" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M84" s="11" t="s">
+      <c r="M84" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="N84" s="11" t="s">
+      <c r="N84" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O84" s="11" t="s">
+      <c r="O84" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P84" s="11" t="s">
+      <c r="P84" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="Q84" s="11" t="s">
+      <c r="Q84" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="R84" s="11" t="s">
+      <c r="R84" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="S84" s="11"/>
-      <c r="T84" s="11" t="s">
+      <c r="S84" s="13"/>
+      <c r="T84" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="U84" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="V84" s="11"/>
+      <c r="U84" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="V84" s="13"/>
     </row>
     <row r="85" spans="1:22">
       <c r="A85" s="5" t="s">
@@ -5650,33 +5656,33 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="10" t="s">
+      <c r="L85" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M85" s="11" t="s">
+      <c r="M85" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="N85" s="11" t="s">
+      <c r="N85" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O85" s="11" t="s">
+      <c r="O85" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P85" s="11" t="s">
+      <c r="P85" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="Q85" s="11" t="s">
+      <c r="Q85" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="R85" s="11"/>
-      <c r="S85" s="11"/>
-      <c r="T85" s="11" t="s">
+      <c r="R85" s="13"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="U85" s="11" t="s">
+      <c r="U85" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="V85" s="11" t="s">
+      <c r="V85" s="13" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5694,25 +5700,25 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="10" t="s">
+      <c r="L86" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M86" s="11" t="s">
+      <c r="M86" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="N86" s="11" t="s">
+      <c r="N86" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O86" s="11"/>
-      <c r="P86" s="11"/>
-      <c r="Q86" s="11"/>
-      <c r="R86" s="11"/>
-      <c r="S86" s="11"/>
-      <c r="T86" s="11"/>
-      <c r="U86" s="11" t="s">
+      <c r="O86" s="13"/>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="13"/>
+      <c r="R86" s="13"/>
+      <c r="S86" s="13"/>
+      <c r="T86" s="13"/>
+      <c r="U86" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="V86" s="11" t="s">
+      <c r="V86" s="13" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5730,29 +5736,29 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="10" t="s">
+      <c r="L87" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M87" s="11" t="s">
+      <c r="M87" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="N87" s="11" t="s">
+      <c r="N87" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O87" s="11" t="s">
+      <c r="O87" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P87" s="11"/>
-      <c r="Q87" s="11" t="s">
+      <c r="P87" s="13"/>
+      <c r="Q87" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="R87" s="11"/>
-      <c r="S87" s="11"/>
-      <c r="T87" s="11"/>
-      <c r="U87" s="11" t="s">
+      <c r="R87" s="13"/>
+      <c r="S87" s="13"/>
+      <c r="T87" s="13"/>
+      <c r="U87" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="V87" s="11"/>
+      <c r="V87" s="13"/>
     </row>
     <row r="88" spans="1:22">
       <c r="A88" s="5" t="s">
@@ -5768,35 +5774,35 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="10" t="s">
+      <c r="L88" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M88" s="11" t="s">
+      <c r="M88" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="N88" s="11" t="s">
+      <c r="N88" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O88" s="11" t="s">
+      <c r="O88" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P88" s="11" t="s">
+      <c r="P88" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="Q88" s="11" t="s">
+      <c r="Q88" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="R88" s="11" t="s">
+      <c r="R88" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="S88" s="11"/>
-      <c r="T88" s="11" t="s">
+      <c r="S88" s="13"/>
+      <c r="T88" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="U88" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="V88" s="11"/>
+      <c r="U88" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="V88" s="13"/>
     </row>
     <row r="89" spans="1:22">
       <c r="A89" s="5" t="s">
@@ -5812,33 +5818,33 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="10" t="s">
+      <c r="L89" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="M89" s="11" t="s">
+      <c r="M89" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="N89" s="11" t="s">
+      <c r="N89" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O89" s="11" t="s">
+      <c r="O89" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P89" s="11" t="s">
+      <c r="P89" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="Q89" s="11" t="s">
+      <c r="Q89" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="R89" s="11"/>
-      <c r="S89" s="11"/>
-      <c r="T89" s="11" t="s">
+      <c r="R89" s="13"/>
+      <c r="S89" s="13"/>
+      <c r="T89" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="U89" s="11" t="s">
+      <c r="U89" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="V89" s="11" t="s">
+      <c r="V89" s="13" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5863,7 +5869,7 @@
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -6055,22 +6061,22 @@
       <c r="B94" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8" t="s">
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="K94" s="8" t="s">
+      <c r="K94" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="L94" s="9" t="s">
+      <c r="L94" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M94" s="5"/>
@@ -6088,27 +6094,27 @@
       <c r="A95" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D95" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8" t="s">
+      <c r="E95" s="9"/>
+      <c r="F95" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8" t="s">
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="K95" s="8"/>
-      <c r="L95" s="9" t="s">
+      <c r="K95" s="9"/>
+      <c r="L95" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M95" s="5"/>
@@ -6126,33 +6132,33 @@
       <c r="A96" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G96" s="8" t="s">
+      <c r="G96" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8" t="s">
+      <c r="H96" s="9"/>
+      <c r="I96" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J96" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="K96" s="8"/>
-      <c r="L96" s="9" t="s">
+      <c r="J96" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="K96" s="9"/>
+      <c r="L96" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M96" s="5"/>
@@ -6173,24 +6179,24 @@
       <c r="B97" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8" t="s">
+      <c r="E97" s="9"/>
+      <c r="F97" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8" t="s">
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="K97" s="8"/>
-      <c r="L97" s="9" t="s">
+      <c r="K97" s="9"/>
+      <c r="L97" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M97" s="5"/>
@@ -6208,33 +6214,33 @@
       <c r="A98" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G98" s="8" t="s">
+      <c r="G98" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8" t="s">
+      <c r="H98" s="9"/>
+      <c r="I98" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J98" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="K98" s="8"/>
-      <c r="L98" s="9" t="s">
+      <c r="J98" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="K98" s="9"/>
+      <c r="L98" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M98" s="5"/>
@@ -6252,33 +6258,33 @@
       <c r="A99" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F99" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8" t="s">
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="J99" s="8" t="s">
+      <c r="J99" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="K99" s="8" t="s">
+      <c r="K99" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="L99" s="9" t="s">
+      <c r="L99" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M99" s="5"/>
@@ -6299,20 +6305,20 @@
       <c r="B100" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8" t="s">
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="K100" s="8"/>
-      <c r="L100" s="9" t="s">
+      <c r="K100" s="9"/>
+      <c r="L100" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M100" s="5"/>
@@ -6330,27 +6336,27 @@
       <c r="A101" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8" t="s">
+      <c r="E101" s="9"/>
+      <c r="F101" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8" t="s">
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="K101" s="8"/>
-      <c r="L101" s="9" t="s">
+      <c r="K101" s="9"/>
+      <c r="L101" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M101" s="5"/>
@@ -6368,33 +6374,33 @@
       <c r="A102" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E102" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F102" s="8" t="s">
+      <c r="F102" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G102" s="8" t="s">
+      <c r="G102" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8" t="s">
+      <c r="H102" s="9"/>
+      <c r="I102" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J102" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="K102" s="8"/>
-      <c r="L102" s="9" t="s">
+      <c r="J102" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="K102" s="9"/>
+      <c r="L102" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M102" s="5"/>
@@ -6412,33 +6418,33 @@
       <c r="A103" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E103" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F103" s="8" t="s">
+      <c r="F103" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G103" s="8" t="s">
+      <c r="G103" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8" t="s">
+      <c r="H103" s="9"/>
+      <c r="I103" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="J103" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="K103" s="8"/>
-      <c r="L103" s="9" t="s">
+      <c r="J103" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="K103" s="9"/>
+      <c r="L103" s="10" t="s">
         <v>211</v>
       </c>
       <c r="M103" s="5"/>
@@ -6453,48 +6459,48 @@
       <c r="V103" s="5"/>
     </row>
     <row r="104" spans="1:22">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5" t="s">
+      <c r="C104" s="2"/>
+      <c r="D104" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E104" s="5"/>
+      <c r="E104" s="2"/>
       <c r="F104" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5" t="s">
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="K104" s="5"/>
+      <c r="K104" s="2"/>
       <c r="L104" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="M104" s="5" t="s">
+      <c r="M104" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N104" s="5"/>
-      <c r="O104" s="5" t="s">
+      <c r="N104" s="2"/>
+      <c r="O104" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P104" s="5"/>
+      <c r="P104" s="2"/>
       <c r="Q104" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="R104" s="5"/>
-      <c r="S104" s="5"/>
-      <c r="T104" s="5"/>
-      <c r="U104" s="5" t="s">
+      <c r="R104" s="2"/>
+      <c r="S104" s="2"/>
+      <c r="T104" s="2"/>
+      <c r="U104" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="V104" s="5"/>
+      <c r="V104" s="2"/>
     </row>
     <row r="105" spans="1:22">
       <c r="A105" s="5" t="s">
